--- a/Datasets/postalcodes.xlsx
+++ b/Datasets/postalcodes.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Open SUS\BD-Address-Line-API\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1896DD-A75B-48C7-8133-6F5D4C1A8C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD0B32C-7920-4065-9E9C-32CF1C9D99BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{FE2076EF-E27E-4ECA-9C1A-DA43E8321FB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2" xr2:uid="{FE2076EF-E27E-4ECA-9C1A-DA43E8321FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="665">
   <si>
     <t>District</t>
   </si>
@@ -1261,13 +1263,772 @@
   </si>
   <si>
     <t>Shribardi</t>
+  </si>
+  <si>
+    <t>SL. No</t>
+  </si>
+  <si>
+    <t>Upazila</t>
+  </si>
+  <si>
+    <t>Post Office (English)</t>
+  </si>
+  <si>
+    <t>Post Office (বাংলা)</t>
+  </si>
+  <si>
+    <t>Motijheel</t>
+  </si>
+  <si>
+    <t>Dhaka Sadar HO</t>
+  </si>
+  <si>
+    <t>Dhaka Sadr</t>
+  </si>
+  <si>
+    <t>Gandaria TSO</t>
+  </si>
+  <si>
+    <t>Nilkhet</t>
+  </si>
+  <si>
+    <t>Kochukhet</t>
+  </si>
+  <si>
+    <t>Dhaka Cen,ft. TSO</t>
+  </si>
+  <si>
+    <t>Mohammadpur</t>
+  </si>
+  <si>
+    <t>Mohammadpur Housing Estate TSO</t>
+  </si>
+  <si>
+    <t>Kamrangirchar</t>
+  </si>
+  <si>
+    <t>Ashrafabad</t>
+  </si>
+  <si>
+    <t>Tejgaon</t>
+  </si>
+  <si>
+    <t>Dhaka Politechnique Institut TSO</t>
+  </si>
+  <si>
+    <t>Dhanmondi</t>
+  </si>
+  <si>
+    <t>Jigatola TSO</t>
+  </si>
+  <si>
+    <t>Gulshan</t>
+  </si>
+  <si>
+    <t>Gulshan TSO</t>
+  </si>
+  <si>
+    <t>Banani</t>
+  </si>
+  <si>
+    <t>Khilgaon</t>
+  </si>
+  <si>
+    <t>Bashabo TSO</t>
+  </si>
+  <si>
+    <t>Mirpur</t>
+  </si>
+  <si>
+    <t>Shantinagar</t>
+  </si>
+  <si>
+    <t>Shantinagar TSO</t>
+  </si>
+  <si>
+    <t>Bangabhaban TSO</t>
+  </si>
+  <si>
+    <t>Dilkusha TSO</t>
+  </si>
+  <si>
+    <t>Lalmati</t>
+  </si>
+  <si>
+    <t>Sangshad Bhaban</t>
+  </si>
+  <si>
+    <t>Khilkhet</t>
+  </si>
+  <si>
+    <t>Khilkhet TSO</t>
+  </si>
+  <si>
+    <t>Uttara</t>
+  </si>
+  <si>
+    <t>Uttara Model Town TSO</t>
+  </si>
+  <si>
+    <t>Dania TSO</t>
+  </si>
+  <si>
+    <t>Keranigonj</t>
+  </si>
+  <si>
+    <t>Keranigonj UPO</t>
+  </si>
+  <si>
+    <t>Uttar Pangaon</t>
+  </si>
+  <si>
+    <t>Konda</t>
+  </si>
+  <si>
+    <t>Baktarchar</t>
+  </si>
+  <si>
+    <t>Talepur</t>
+  </si>
+  <si>
+    <t>Beuta</t>
+  </si>
+  <si>
+    <t>Baghoir</t>
+  </si>
+  <si>
+    <t>Paschimdi</t>
+  </si>
+  <si>
+    <t>Rahitpur</t>
+  </si>
+  <si>
+    <t>Brahammankirti</t>
+  </si>
+  <si>
+    <t>Rajabari</t>
+  </si>
+  <si>
+    <t>Shakta</t>
+  </si>
+  <si>
+    <t>Shyamlapur</t>
+  </si>
+  <si>
+    <t>Shuvadda</t>
+  </si>
+  <si>
+    <t>Sonakanda</t>
+  </si>
+  <si>
+    <t>Dhaka Jute Mils SO</t>
+  </si>
+  <si>
+    <t>Doleshor</t>
+  </si>
+  <si>
+    <t>Teghoria</t>
+  </si>
+  <si>
+    <t>Par Gandaria</t>
+  </si>
+  <si>
+    <t>Abdullapur</t>
+  </si>
+  <si>
+    <t>Ati EDSO</t>
+  </si>
+  <si>
+    <t>Kalatia SO</t>
+  </si>
+  <si>
+    <t>Itavara</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Taranagar</t>
+  </si>
+  <si>
+    <t>Kharakandi</t>
+  </si>
+  <si>
+    <t>Nawabgonj</t>
+  </si>
+  <si>
+    <t>Nawabgonj UPO</t>
+  </si>
+  <si>
+    <t>Kolakopa</t>
+  </si>
+  <si>
+    <t>Gobindopur</t>
+  </si>
+  <si>
+    <t>Galimpur</t>
+  </si>
+  <si>
+    <t>Choto Box Nagar</t>
+  </si>
+  <si>
+    <t>Jalalchar</t>
+  </si>
+  <si>
+    <t>Paragram</t>
+  </si>
+  <si>
+    <t>Braha</t>
+  </si>
+  <si>
+    <t>Bardhanpara</t>
+  </si>
+  <si>
+    <t>Mohabbatpur</t>
+  </si>
+  <si>
+    <t>Mashail</t>
+  </si>
+  <si>
+    <t>Sholla</t>
+  </si>
+  <si>
+    <t>Kailail</t>
+  </si>
+  <si>
+    <t>Aona</t>
+  </si>
+  <si>
+    <t>Patiljhap</t>
+  </si>
+  <si>
+    <t>Meleng</t>
+  </si>
+  <si>
+    <t>Dakkhin Balukhondo</t>
+  </si>
+  <si>
+    <t>Hasnabad SO</t>
+  </si>
+  <si>
+    <t>Khanepur</t>
+  </si>
+  <si>
+    <t>Dewtola</t>
+  </si>
+  <si>
+    <t>Daudpur So</t>
+  </si>
+  <si>
+    <t>Kuthuri</t>
+  </si>
+  <si>
+    <t>Joykrishnapur</t>
+  </si>
+  <si>
+    <t>Karpara</t>
+  </si>
+  <si>
+    <t>Shikaripara</t>
+  </si>
+  <si>
+    <t>Hat Baruakhali</t>
+  </si>
+  <si>
+    <t>Tasulla Banglabazar</t>
+  </si>
+  <si>
+    <t>Agla EDSO</t>
+  </si>
+  <si>
+    <t>Khalpur EDSO</t>
+  </si>
+  <si>
+    <t>Churan So</t>
+  </si>
+  <si>
+    <t>Joypara (Dohar)</t>
+  </si>
+  <si>
+    <t>Joypara (Dohar) UPO</t>
+  </si>
+  <si>
+    <t>Al-Amin Bazar</t>
+  </si>
+  <si>
+    <t>Harichandi</t>
+  </si>
+  <si>
+    <t>Dohar</t>
+  </si>
+  <si>
+    <t>Meghula</t>
+  </si>
+  <si>
+    <t>Aorangabad</t>
+  </si>
+  <si>
+    <t>Kusumhati</t>
+  </si>
+  <si>
+    <t>Dokkhin Braha</t>
+  </si>
+  <si>
+    <t>Palamgonj SO</t>
+  </si>
+  <si>
+    <t>Jamalchar</t>
+  </si>
+  <si>
+    <t>Narisha SO</t>
+  </si>
+  <si>
+    <t>Mokshedpur So</t>
+  </si>
+  <si>
+    <t>Savar UPO</t>
+  </si>
+  <si>
+    <t>Vakurta</t>
+  </si>
+  <si>
+    <t>Rajfulbariya</t>
+  </si>
+  <si>
+    <t>Rajashon</t>
+  </si>
+  <si>
+    <t>Hemayetpur</t>
+  </si>
+  <si>
+    <t>Moshurikhola</t>
+  </si>
+  <si>
+    <t>Shobahanbagh</t>
+  </si>
+  <si>
+    <t>Nayarhat</t>
+  </si>
+  <si>
+    <t>Biruliya</t>
+  </si>
+  <si>
+    <t>Nagarkonda</t>
+  </si>
+  <si>
+    <t>Dairy Firm SO</t>
+  </si>
+  <si>
+    <t>Ashuliya</t>
+  </si>
+  <si>
+    <t>Zirabo</t>
+  </si>
+  <si>
+    <t>Jahangir Nagar University SO</t>
+  </si>
+  <si>
+    <t>Savar PATC  SO</t>
+  </si>
+  <si>
+    <t>CRP Chapain</t>
+  </si>
+  <si>
+    <t>Savar Cantt. SO</t>
+  </si>
+  <si>
+    <t>Mirzanagar</t>
+  </si>
+  <si>
+    <t>Senwaliya</t>
+  </si>
+  <si>
+    <t>Shimulia SO</t>
+  </si>
+  <si>
+    <t>Noihati Bazar</t>
+  </si>
+  <si>
+    <t>Kashem Cotton Mills SO</t>
+  </si>
+  <si>
+    <t>Rajfulbaria EDSO</t>
+  </si>
+  <si>
+    <t>EPZ SO</t>
+  </si>
+  <si>
+    <t>Uttor Gazirchat</t>
+  </si>
+  <si>
+    <t>Dhamsona</t>
+  </si>
+  <si>
+    <t>Dhamrai UPO</t>
+  </si>
+  <si>
+    <t>Balia</t>
+  </si>
+  <si>
+    <t>Amta</t>
+  </si>
+  <si>
+    <t>Dimukha</t>
+  </si>
+  <si>
+    <t>Barigaon</t>
+  </si>
+  <si>
+    <t>Toperbari</t>
+  </si>
+  <si>
+    <t>Suapur</t>
+  </si>
+  <si>
+    <t>Deldha</t>
+  </si>
+  <si>
+    <t>Shoilain</t>
+  </si>
+  <si>
+    <t>Jadabpur</t>
+  </si>
+  <si>
+    <t>Berosh</t>
+  </si>
+  <si>
+    <t>Bannal</t>
+  </si>
+  <si>
+    <t>Mangalbari</t>
+  </si>
+  <si>
+    <t>Nannar</t>
+  </si>
+  <si>
+    <t>Jalsin</t>
+  </si>
+  <si>
+    <t>Rowail</t>
+  </si>
+  <si>
+    <t>Kathaliya Nabogram</t>
+  </si>
+  <si>
+    <t>Sanora</t>
+  </si>
+  <si>
+    <t>Nowga Bazar</t>
+  </si>
+  <si>
+    <t>Gangutiya</t>
+  </si>
+  <si>
+    <t>Jalsha</t>
+  </si>
+  <si>
+    <t>Sahabelishwar</t>
+  </si>
+  <si>
+    <t>Chowhatto</t>
+  </si>
+  <si>
+    <t>Rajapur</t>
+  </si>
+  <si>
+    <t>Kalampur EDSO</t>
+  </si>
+  <si>
+    <t>Demra UPO</t>
+  </si>
+  <si>
+    <t>Purbagram</t>
+  </si>
+  <si>
+    <t>Tarab</t>
+  </si>
+  <si>
+    <t>Jatramura</t>
+  </si>
+  <si>
+    <t>Paradgair</t>
+  </si>
+  <si>
+    <t>Sarulia SO</t>
+  </si>
+  <si>
+    <t>Sanarpar</t>
+  </si>
+  <si>
+    <t>Kodomtoli</t>
+  </si>
+  <si>
+    <t>Kodomtoli UPO</t>
+  </si>
+  <si>
+    <t>Matuail SO</t>
+  </si>
+  <si>
+    <t>Tushardhara</t>
+  </si>
+  <si>
+    <t>Merajnagar</t>
+  </si>
+  <si>
+    <t>Habibnagar</t>
+  </si>
+  <si>
+    <t>SL.No</t>
+  </si>
+  <si>
+    <t>Upozila</t>
+  </si>
+  <si>
+    <t>Sadar</t>
+  </si>
+  <si>
+    <t>Narayangonj HO</t>
+  </si>
+  <si>
+    <t>Barabo</t>
+  </si>
+  <si>
+    <t>Madanpur</t>
+  </si>
+  <si>
+    <t>Lakkhankhola</t>
+  </si>
+  <si>
+    <t>Sabdibazar</t>
+  </si>
+  <si>
+    <t>Mogolergaon</t>
+  </si>
+  <si>
+    <t>Hosenpur</t>
+  </si>
+  <si>
+    <t>Barpara</t>
+  </si>
+  <si>
+    <t>Monarbari</t>
+  </si>
+  <si>
+    <t>Bandar UPO</t>
+  </si>
+  <si>
+    <t>Puran Bandar</t>
+  </si>
+  <si>
+    <t>DC Mills SO</t>
+  </si>
+  <si>
+    <t>Nabigonj EDSO</t>
+  </si>
+  <si>
+    <t>BIDC SO</t>
+  </si>
+  <si>
+    <t>Madangonj SO</t>
+  </si>
+  <si>
+    <t>Fatulla</t>
+  </si>
+  <si>
+    <t>Fatulla UPO</t>
+  </si>
+  <si>
+    <t>Jalkuri</t>
+  </si>
+  <si>
+    <t>Vuighar</t>
+  </si>
+  <si>
+    <t>Fatulla Bazar SO</t>
+  </si>
+  <si>
+    <t>Dapa Idrikpur</t>
+  </si>
+  <si>
+    <t>Kutubpur</t>
+  </si>
+  <si>
+    <t>Anayetnagar</t>
+  </si>
+  <si>
+    <t>Char Baktabali</t>
+  </si>
+  <si>
+    <t>Alirtek</t>
+  </si>
+  <si>
+    <t>Siddirgonj</t>
+  </si>
+  <si>
+    <t>Siddirgonj Power Station UPO</t>
+  </si>
+  <si>
+    <t>Kachpur</t>
+  </si>
+  <si>
+    <t>Mizmizi</t>
+  </si>
+  <si>
+    <t>Siddirgonj Bazar</t>
+  </si>
+  <si>
+    <t>Adamjeenagar SO</t>
+  </si>
+  <si>
+    <t>LN Mills SO</t>
+  </si>
+  <si>
+    <t>Sonargaon</t>
+  </si>
+  <si>
+    <t>Sonargaon UPO</t>
+  </si>
+  <si>
+    <t>Baronagar</t>
+  </si>
+  <si>
+    <t>Bardi</t>
+  </si>
+  <si>
+    <t>Highshadi</t>
+  </si>
+  <si>
+    <t>Lakshibardi</t>
+  </si>
+  <si>
+    <t>Dhandi Bazar</t>
+  </si>
+  <si>
+    <t>Saheb Bazar</t>
+  </si>
+  <si>
+    <t>Bangla Bazar</t>
+  </si>
+  <si>
+    <t>Ananda Bazar</t>
+  </si>
+  <si>
+    <t>Samomandi</t>
+  </si>
+  <si>
+    <t>Aminpur</t>
+  </si>
+  <si>
+    <t>New Town</t>
+  </si>
+  <si>
+    <t>Alipura</t>
+  </si>
+  <si>
+    <t>Nayanabad</t>
+  </si>
+  <si>
+    <t>Mohajampur</t>
+  </si>
+  <si>
+    <t>Kasem Nagar</t>
+  </si>
+  <si>
+    <t>Bara Nagar EDSO</t>
+  </si>
+  <si>
+    <t>Bradi SO</t>
+  </si>
+  <si>
+    <t>Arhaihazar</t>
+  </si>
+  <si>
+    <t>Arhaihazar UPO</t>
+  </si>
+  <si>
+    <t>Kala Paharia</t>
+  </si>
+  <si>
+    <t>Hamshadi</t>
+  </si>
+  <si>
+    <t>Dhuptara</t>
+  </si>
+  <si>
+    <t>Pachrukhi</t>
+  </si>
+  <si>
+    <t>Sultansadi</t>
+  </si>
+  <si>
+    <t>Chaitonnokanda</t>
+  </si>
+  <si>
+    <t>Sombupura</t>
+  </si>
+  <si>
+    <t>Fausha</t>
+  </si>
+  <si>
+    <t>Sreenibasdi</t>
+  </si>
+  <si>
+    <t>Gopadi SO</t>
+  </si>
+  <si>
+    <t>Chardigaldi</t>
+  </si>
+  <si>
+    <t>Rupgonj</t>
+  </si>
+  <si>
+    <t>Rupgonj UPO</t>
+  </si>
+  <si>
+    <t>Vulta</t>
+  </si>
+  <si>
+    <t>Perabo</t>
+  </si>
+  <si>
+    <t>Baliapara</t>
+  </si>
+  <si>
+    <t>Nagarpara</t>
+  </si>
+  <si>
+    <t>Parshinagar</t>
+  </si>
+  <si>
+    <t>Masumabad</t>
+  </si>
+  <si>
+    <t>Gobindapur</t>
+  </si>
+  <si>
+    <t>Kanchen SO</t>
+  </si>
+  <si>
+    <t>Brahammonkhali</t>
+  </si>
+  <si>
+    <t>Bhulta SO</t>
+  </si>
+  <si>
+    <t>Nagari EDSO</t>
+  </si>
+  <si>
+    <t>Murapara SO</t>
+  </si>
+  <si>
+    <t>Rupshi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +2047,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1308,7 +2079,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1368,11 +2139,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1388,6 +2174,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,11 +2500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31489893-FBFE-4724-8E20-79244D5C76AA}">
   <dimension ref="A1:D376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -1717,7 +2512,7 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +2540,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +2554,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +2568,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="26.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +2582,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +2596,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="26.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +2610,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +2624,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="39">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +2638,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +2652,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +2666,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1885,7 +2680,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="26.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +2694,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +2708,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +2722,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="26.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +2736,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="26.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +2750,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="26.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +2764,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="26.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +2778,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="26.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +2792,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="26.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2806,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="26.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2820,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2834,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="39">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2848,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="26.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2862,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="39">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2876,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2890,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2904,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2918,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2932,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="26.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2946,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2960,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="26.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2974,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="26.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2988,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="26.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2207,7 +3002,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="26.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +3016,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="26.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +3030,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="26.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +3044,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="26.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +3058,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="26.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +3072,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="26.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +3086,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="26.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +3100,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +3114,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="26.25">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +3128,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="39">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +3142,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="26.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2361,7 +3156,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="39">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +3170,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +3184,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="39">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +3198,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="26.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +3212,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="26.25">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +3226,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +3240,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="26.25">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -2459,7 +3254,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="26.25">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +3268,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="26.25">
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +3282,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="26.25">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -2501,7 +3296,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="26.25">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -2515,7 +3310,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="26.25">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -2529,7 +3324,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="26.25">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -2543,7 +3338,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="26.25">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2557,7 +3352,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="26.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2571,7 +3366,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="26.25">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -2585,7 +3380,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="26.25">
       <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
@@ -2599,7 +3394,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="26.25">
       <c r="A64" s="3" t="s">
         <v>59</v>
       </c>
@@ -2613,7 +3408,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="26.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +3422,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="26.25">
       <c r="A66" s="3" t="s">
         <v>59</v>
       </c>
@@ -2641,7 +3436,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="26.25">
       <c r="A67" s="3" t="s">
         <v>59</v>
       </c>
@@ -2655,7 +3450,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="26.25">
       <c r="A68" s="3" t="s">
         <v>59</v>
       </c>
@@ -2669,7 +3464,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="39">
       <c r="A69" s="3" t="s">
         <v>59</v>
       </c>
@@ -2683,7 +3478,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="39">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
@@ -2697,7 +3492,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="39">
       <c r="A71" s="3" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +3506,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="39">
       <c r="A72" s="3" t="s">
         <v>59</v>
       </c>
@@ -2725,7 +3520,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="39">
       <c r="A73" s="3" t="s">
         <v>59</v>
       </c>
@@ -2739,7 +3534,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="39">
       <c r="A74" s="3" t="s">
         <v>59</v>
       </c>
@@ -2753,7 +3548,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="26.25">
       <c r="A75" s="3" t="s">
         <v>59</v>
       </c>
@@ -2767,7 +3562,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="26.25">
       <c r="A76" s="3" t="s">
         <v>59</v>
       </c>
@@ -2781,7 +3576,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="26.25">
       <c r="A77" s="3" t="s">
         <v>59</v>
       </c>
@@ -2795,7 +3590,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="26.25">
       <c r="A78" s="3" t="s">
         <v>59</v>
       </c>
@@ -2809,7 +3604,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="26.25">
       <c r="A79" s="3" t="s">
         <v>59</v>
       </c>
@@ -2823,7 +3618,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="26.25">
       <c r="A80" s="3" t="s">
         <v>59</v>
       </c>
@@ -2837,7 +3632,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="26.25">
       <c r="A81" s="3" t="s">
         <v>59</v>
       </c>
@@ -2851,7 +3646,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="39">
       <c r="A82" s="3" t="s">
         <v>59</v>
       </c>
@@ -2865,7 +3660,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="26.25">
       <c r="A83" s="3" t="s">
         <v>59</v>
       </c>
@@ -2879,7 +3674,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="26.25">
       <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
@@ -2893,7 +3688,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="26.25">
       <c r="A85" s="3" t="s">
         <v>91</v>
       </c>
@@ -2907,7 +3702,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="26.25">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -2921,7 +3716,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="26.25">
       <c r="A87" s="3" t="s">
         <v>91</v>
       </c>
@@ -2935,7 +3730,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="26.25">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -2949,7 +3744,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="26.25">
       <c r="A89" s="3" t="s">
         <v>91</v>
       </c>
@@ -2963,7 +3758,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="26.25">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -2977,7 +3772,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="26.25">
       <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
@@ -2991,7 +3786,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="26.25">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -3005,7 +3800,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="26.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -3019,7 +3814,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="39">
       <c r="A94" s="3" t="s">
         <v>91</v>
       </c>
@@ -3033,7 +3828,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="26.25">
       <c r="A95" s="3" t="s">
         <v>91</v>
       </c>
@@ -3047,7 +3842,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="26.25">
       <c r="A96" s="3" t="s">
         <v>91</v>
       </c>
@@ -3061,7 +3856,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="26.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -3075,7 +3870,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="26.25">
       <c r="A98" s="3" t="s">
         <v>91</v>
       </c>
@@ -3089,7 +3884,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="26.25">
       <c r="A99" s="3" t="s">
         <v>91</v>
       </c>
@@ -3103,7 +3898,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="26.25">
       <c r="A100" s="3" t="s">
         <v>91</v>
       </c>
@@ -3117,7 +3912,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="26.25">
       <c r="A101" s="3" t="s">
         <v>91</v>
       </c>
@@ -3131,7 +3926,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="26.25">
       <c r="A102" s="3" t="s">
         <v>91</v>
       </c>
@@ -3145,7 +3940,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="26.25">
       <c r="A103" s="3" t="s">
         <v>91</v>
       </c>
@@ -3159,7 +3954,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="26.25">
       <c r="A104" s="3" t="s">
         <v>91</v>
       </c>
@@ -3173,7 +3968,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="26.25">
       <c r="A105" s="3" t="s">
         <v>115</v>
       </c>
@@ -3187,7 +3982,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="26.25">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -3201,7 +3996,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="26.25">
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
@@ -3215,7 +4010,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="26.25">
       <c r="A108" s="3" t="s">
         <v>115</v>
       </c>
@@ -3229,7 +4024,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="26.25">
       <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
@@ -3243,7 +4038,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="26.25">
       <c r="A110" s="3" t="s">
         <v>115</v>
       </c>
@@ -3257,7 +4052,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="26.25">
       <c r="A111" s="3" t="s">
         <v>115</v>
       </c>
@@ -3271,7 +4066,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="26.25">
       <c r="A112" s="3" t="s">
         <v>115</v>
       </c>
@@ -3285,7 +4080,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="26.25">
       <c r="A113" s="3" t="s">
         <v>115</v>
       </c>
@@ -3299,7 +4094,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="26.25">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
@@ -3313,7 +4108,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="26.25">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
@@ -3327,7 +4122,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="26.25">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
@@ -3341,7 +4136,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="26.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
@@ -3355,7 +4150,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="26.25">
       <c r="A118" s="3" t="s">
         <v>115</v>
       </c>
@@ -3369,7 +4164,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="26.25">
       <c r="A119" s="3" t="s">
         <v>115</v>
       </c>
@@ -3383,7 +4178,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="26.25">
       <c r="A120" s="3" t="s">
         <v>115</v>
       </c>
@@ -3397,7 +4192,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="26.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -3411,7 +4206,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="26.25">
       <c r="A122" s="3" t="s">
         <v>115</v>
       </c>
@@ -3425,7 +4220,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="26.25">
       <c r="A123" s="3" t="s">
         <v>138</v>
       </c>
@@ -3439,7 +4234,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="26.25">
       <c r="A124" s="3" t="s">
         <v>138</v>
       </c>
@@ -3453,7 +4248,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="26.25">
       <c r="A125" s="3" t="s">
         <v>138</v>
       </c>
@@ -3467,7 +4262,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="26.25">
       <c r="A126" s="3" t="s">
         <v>138</v>
       </c>
@@ -3481,7 +4276,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="26.25">
       <c r="A127" s="3" t="s">
         <v>138</v>
       </c>
@@ -3495,7 +4290,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="26.25">
       <c r="A128" s="3" t="s">
         <v>138</v>
       </c>
@@ -3509,7 +4304,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="26.25">
       <c r="A129" s="3" t="s">
         <v>138</v>
       </c>
@@ -3523,7 +4318,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="26.25">
       <c r="A130" s="3" t="s">
         <v>138</v>
       </c>
@@ -3537,7 +4332,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="26.25">
       <c r="A131" s="3" t="s">
         <v>138</v>
       </c>
@@ -3551,7 +4346,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="26.25">
       <c r="A132" s="3" t="s">
         <v>138</v>
       </c>
@@ -3565,7 +4360,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="26.25">
       <c r="A133" s="3" t="s">
         <v>138</v>
       </c>
@@ -3579,7 +4374,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="26.25">
       <c r="A134" s="3" t="s">
         <v>138</v>
       </c>
@@ -3593,7 +4388,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="26.25">
       <c r="A135" s="3" t="s">
         <v>138</v>
       </c>
@@ -3607,7 +4402,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="26.25">
       <c r="A136" s="3" t="s">
         <v>138</v>
       </c>
@@ -3621,7 +4416,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="26.25">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
@@ -3635,7 +4430,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="26.25">
       <c r="A138" s="3" t="s">
         <v>138</v>
       </c>
@@ -3649,7 +4444,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="26.25">
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
@@ -3663,7 +4458,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="26.25">
       <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
@@ -3677,7 +4472,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="26.25">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
@@ -3691,7 +4486,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="26.25">
       <c r="A142" s="3" t="s">
         <v>138</v>
       </c>
@@ -3705,7 +4500,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="26.25">
       <c r="A143" s="3" t="s">
         <v>138</v>
       </c>
@@ -3719,7 +4514,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="26.25">
       <c r="A144" s="3" t="s">
         <v>160</v>
       </c>
@@ -3733,7 +4528,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="26.25">
       <c r="A145" s="3" t="s">
         <v>160</v>
       </c>
@@ -3747,7 +4542,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="26.25">
       <c r="A146" s="3" t="s">
         <v>160</v>
       </c>
@@ -3761,7 +4556,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="26.25">
       <c r="A147" s="3" t="s">
         <v>160</v>
       </c>
@@ -3775,7 +4570,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="26.25">
       <c r="A148" s="3" t="s">
         <v>160</v>
       </c>
@@ -3789,7 +4584,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="26.25">
       <c r="A149" s="3" t="s">
         <v>160</v>
       </c>
@@ -3803,7 +4598,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="26.25">
       <c r="A150" s="3" t="s">
         <v>160</v>
       </c>
@@ -3817,7 +4612,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="26.25">
       <c r="A151" s="3" t="s">
         <v>160</v>
       </c>
@@ -3831,7 +4626,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="26.25">
       <c r="A152" s="3" t="s">
         <v>160</v>
       </c>
@@ -3845,7 +4640,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="26.25">
       <c r="A153" s="3" t="s">
         <v>160</v>
       </c>
@@ -3859,7 +4654,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="26.25">
       <c r="A154" s="3" t="s">
         <v>160</v>
       </c>
@@ -3873,7 +4668,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="39">
       <c r="A155" s="3" t="s">
         <v>160</v>
       </c>
@@ -3887,7 +4682,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="26.25">
       <c r="A156" s="3" t="s">
         <v>160</v>
       </c>
@@ -3901,7 +4696,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="26.25">
       <c r="A157" s="3" t="s">
         <v>160</v>
       </c>
@@ -3915,7 +4710,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="26.25">
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
@@ -3929,7 +4724,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="26.25">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -3943,7 +4738,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="26.25">
       <c r="A160" s="3" t="s">
         <v>160</v>
       </c>
@@ -3957,7 +4752,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="26.25">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
@@ -3971,7 +4766,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="26.25">
       <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
@@ -3985,7 +4780,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="26.25">
       <c r="A163" s="3" t="s">
         <v>160</v>
       </c>
@@ -3999,7 +4794,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="26.25">
       <c r="A164" s="3" t="s">
         <v>160</v>
       </c>
@@ -4013,7 +4808,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="26.25">
       <c r="A165" s="3" t="s">
         <v>160</v>
       </c>
@@ -4027,7 +4822,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="26.25">
       <c r="A166" s="3" t="s">
         <v>160</v>
       </c>
@@ -4041,7 +4836,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="26.25">
       <c r="A167" s="3" t="s">
         <v>160</v>
       </c>
@@ -4055,7 +4850,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="26.25">
       <c r="A168" s="3" t="s">
         <v>160</v>
       </c>
@@ -4069,7 +4864,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="26.25">
       <c r="A169" s="3" t="s">
         <v>160</v>
       </c>
@@ -4083,7 +4878,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="26.25">
       <c r="A170" s="3" t="s">
         <v>160</v>
       </c>
@@ -4097,7 +4892,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="26.25">
       <c r="A171" s="3" t="s">
         <v>160</v>
       </c>
@@ -4111,7 +4906,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="26.25">
       <c r="A172" s="3" t="s">
         <v>160</v>
       </c>
@@ -4125,7 +4920,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="26.25">
       <c r="A173" s="3" t="s">
         <v>160</v>
       </c>
@@ -4139,7 +4934,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="26.25">
       <c r="A174" s="3" t="s">
         <v>160</v>
       </c>
@@ -4153,7 +4948,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="26.25">
       <c r="A175" s="3" t="s">
         <v>160</v>
       </c>
@@ -4167,7 +4962,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="26.25">
       <c r="A176" s="3" t="s">
         <v>160</v>
       </c>
@@ -4181,7 +4976,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="26.25">
       <c r="A177" s="3" t="s">
         <v>160</v>
       </c>
@@ -4195,7 +4990,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="26.25">
       <c r="A178" s="3" t="s">
         <v>160</v>
       </c>
@@ -4209,7 +5004,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="26.25">
       <c r="A179" s="3" t="s">
         <v>160</v>
       </c>
@@ -4223,7 +5018,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="26.25">
       <c r="A180" s="3" t="s">
         <v>160</v>
       </c>
@@ -4237,7 +5032,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="26.25">
       <c r="A181" s="3" t="s">
         <v>160</v>
       </c>
@@ -4251,7 +5046,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="26.25">
       <c r="A182" s="3" t="s">
         <v>199</v>
       </c>
@@ -4265,7 +5060,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="26.25">
       <c r="A183" s="3" t="s">
         <v>199</v>
       </c>
@@ -4279,7 +5074,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="26.25">
       <c r="A184" s="3" t="s">
         <v>199</v>
       </c>
@@ -4293,7 +5088,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="26.25">
       <c r="A185" s="3" t="s">
         <v>199</v>
       </c>
@@ -4307,7 +5102,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="26.25">
       <c r="A186" s="3" t="s">
         <v>199</v>
       </c>
@@ -4321,7 +5116,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="26.25">
       <c r="A187" s="3" t="s">
         <v>199</v>
       </c>
@@ -4335,7 +5130,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
         <v>199</v>
       </c>
@@ -4349,7 +5144,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="3" t="s">
         <v>199</v>
       </c>
@@ -4363,7 +5158,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="3" t="s">
         <v>199</v>
       </c>
@@ -4377,7 +5172,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="3" t="s">
         <v>199</v>
       </c>
@@ -4391,7 +5186,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
         <v>199</v>
       </c>
@@ -4405,7 +5200,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="3" t="s">
         <v>199</v>
       </c>
@@ -4419,7 +5214,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
         <v>199</v>
       </c>
@@ -4433,7 +5228,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="3" t="s">
         <v>199</v>
       </c>
@@ -4447,7 +5242,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
         <v>199</v>
       </c>
@@ -4461,7 +5256,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>199</v>
       </c>
@@ -4475,7 +5270,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -4489,7 +5284,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
@@ -4503,7 +5298,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="3" t="s">
         <v>218</v>
       </c>
@@ -4517,7 +5312,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
         <v>218</v>
       </c>
@@ -4531,7 +5326,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
         <v>218</v>
       </c>
@@ -4545,7 +5340,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
         <v>218</v>
       </c>
@@ -4559,7 +5354,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>218</v>
       </c>
@@ -4573,7 +5368,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>218</v>
       </c>
@@ -4587,7 +5382,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
         <v>218</v>
       </c>
@@ -4601,7 +5396,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" s="3" t="s">
         <v>218</v>
       </c>
@@ -4615,7 +5410,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" s="3" t="s">
         <v>218</v>
       </c>
@@ -4629,7 +5424,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>218</v>
       </c>
@@ -4643,7 +5438,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" s="3" t="s">
         <v>218</v>
       </c>
@@ -4657,7 +5452,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" s="3" t="s">
         <v>218</v>
       </c>
@@ -4671,7 +5466,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" s="3" t="s">
         <v>218</v>
       </c>
@@ -4685,7 +5480,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" s="3" t="s">
         <v>218</v>
       </c>
@@ -4699,7 +5494,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
         <v>218</v>
       </c>
@@ -4713,7 +5508,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" s="3" t="s">
         <v>218</v>
       </c>
@@ -4727,7 +5522,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="3" t="s">
         <v>218</v>
       </c>
@@ -4741,7 +5536,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" s="3" t="s">
         <v>218</v>
       </c>
@@ -4755,7 +5550,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" s="3" t="s">
         <v>218</v>
       </c>
@@ -4769,7 +5564,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
@@ -4783,7 +5578,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" s="3" t="s">
         <v>218</v>
       </c>
@@ -4797,7 +5592,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" s="3" t="s">
         <v>218</v>
       </c>
@@ -4811,7 +5606,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" s="3" t="s">
         <v>218</v>
       </c>
@@ -4825,7 +5620,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" s="3" t="s">
         <v>244</v>
       </c>
@@ -4839,7 +5634,7 @@
         <v>7730</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
         <v>244</v>
       </c>
@@ -4853,7 +5648,7 @@
         <v>7731</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="3" t="s">
         <v>244</v>
       </c>
@@ -4867,7 +5662,7 @@
         <v>7720</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" s="3" t="s">
         <v>244</v>
       </c>
@@ -4881,7 +5676,7 @@
         <v>7721</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
         <v>244</v>
       </c>
@@ -4895,7 +5690,7 @@
         <v>7722</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
         <v>244</v>
       </c>
@@ -4909,7 +5704,7 @@
         <v>7723</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="3" t="s">
         <v>244</v>
       </c>
@@ -4923,7 +5718,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="3" t="s">
         <v>244</v>
       </c>
@@ -4937,7 +5732,7 @@
         <v>7710</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231" s="3" t="s">
         <v>244</v>
       </c>
@@ -4951,7 +5746,7 @@
         <v>7711</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232" s="3" t="s">
         <v>254</v>
       </c>
@@ -4965,7 +5760,7 @@
         <v>7870</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="A233" s="3" t="s">
         <v>254</v>
       </c>
@@ -4979,7 +5774,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" s="3" t="s">
         <v>254</v>
       </c>
@@ -4993,7 +5788,7 @@
         <v>7860</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" s="3" t="s">
         <v>254</v>
       </c>
@@ -5007,7 +5802,7 @@
         <v>7861</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" s="3" t="s">
         <v>254</v>
       </c>
@@ -5021,7 +5816,7 @@
         <v>7810</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237" s="3" t="s">
         <v>254</v>
       </c>
@@ -5035,7 +5830,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238" s="3" t="s">
         <v>254</v>
       </c>
@@ -5049,7 +5844,7 @@
         <v>7801</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
         <v>254</v>
       </c>
@@ -5063,7 +5858,7 @@
         <v>7802</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" s="3" t="s">
         <v>254</v>
       </c>
@@ -5077,7 +5872,7 @@
         <v>7803</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="A241" s="3" t="s">
         <v>254</v>
       </c>
@@ -5091,7 +5886,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242" s="3" t="s">
         <v>254</v>
       </c>
@@ -5105,7 +5900,7 @@
         <v>7851</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4">
       <c r="A243" s="3" t="s">
         <v>254</v>
       </c>
@@ -5119,7 +5914,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
         <v>254</v>
       </c>
@@ -5133,7 +5928,7 @@
         <v>7841</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4">
       <c r="A245" s="3" t="s">
         <v>254</v>
       </c>
@@ -5147,7 +5942,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4">
       <c r="A246" s="3" t="s">
         <v>254</v>
       </c>
@@ -5161,7 +5956,7 @@
         <v>7821</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4">
       <c r="A247" s="3" t="s">
         <v>254</v>
       </c>
@@ -5175,7 +5970,7 @@
         <v>7822</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4">
       <c r="A248" s="3" t="s">
         <v>254</v>
       </c>
@@ -5189,7 +5984,7 @@
         <v>7804</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4">
       <c r="A249" s="3" t="s">
         <v>274</v>
       </c>
@@ -5203,7 +5998,7 @@
         <v>7930</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4">
       <c r="A250" s="3" t="s">
         <v>274</v>
       </c>
@@ -5217,7 +6012,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4">
       <c r="A251" s="3" t="s">
         <v>274</v>
       </c>
@@ -5231,7 +6026,7 @@
         <v>7932</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4">
       <c r="A252" s="3" t="s">
         <v>274</v>
       </c>
@@ -5245,7 +6040,7 @@
         <v>7933</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4">
       <c r="A253" s="3" t="s">
         <v>274</v>
       </c>
@@ -5259,7 +6054,7 @@
         <v>7920</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
         <v>274</v>
       </c>
@@ -5273,7 +6068,7 @@
         <v>7921</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4">
       <c r="A255" s="3" t="s">
         <v>274</v>
       </c>
@@ -5287,7 +6082,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4">
       <c r="A256" s="3" t="s">
         <v>274</v>
       </c>
@@ -5301,7 +6096,7 @@
         <v>7901</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4">
       <c r="A257" s="3" t="s">
         <v>274</v>
       </c>
@@ -5315,7 +6110,7 @@
         <v>7902</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4">
       <c r="A258" s="3" t="s">
         <v>274</v>
       </c>
@@ -5329,7 +6124,7 @@
         <v>7903</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="A259" s="3" t="s">
         <v>274</v>
       </c>
@@ -5343,7 +6138,7 @@
         <v>7904</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4">
       <c r="A260" s="3" t="s">
         <v>274</v>
       </c>
@@ -5357,7 +6152,7 @@
         <v>7910</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" s="3" t="s">
         <v>274</v>
       </c>
@@ -5371,7 +6166,7 @@
         <v>7911</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="A262" s="3" t="s">
         <v>289</v>
       </c>
@@ -5385,7 +6180,7 @@
         <v>8030</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -5399,7 +6194,7 @@
         <v>8040</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
         <v>289</v>
       </c>
@@ -5413,7 +6208,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4">
       <c r="A265" s="3" t="s">
         <v>289</v>
       </c>
@@ -5427,7 +6222,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4">
       <c r="A266" s="3" t="s">
         <v>289</v>
       </c>
@@ -5441,7 +6236,7 @@
         <v>8020</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" s="3" t="s">
         <v>289</v>
       </c>
@@ -5455,7 +6250,7 @@
         <v>8021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" s="3" t="s">
         <v>289</v>
       </c>
@@ -5469,7 +6264,7 @@
         <v>8022</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4">
       <c r="A269" s="3" t="s">
         <v>289</v>
       </c>
@@ -5483,7 +6278,7 @@
         <v>8023</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4">
       <c r="A270" s="3" t="s">
         <v>289</v>
       </c>
@@ -5497,7 +6292,7 @@
         <v>8024</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4">
       <c r="A271" s="3" t="s">
         <v>289</v>
       </c>
@@ -5511,7 +6306,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4">
       <c r="A272" s="3" t="s">
         <v>289</v>
       </c>
@@ -5525,7 +6320,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4">
       <c r="A273" s="3" t="s">
         <v>289</v>
       </c>
@@ -5539,7 +6334,7 @@
         <v>8002</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
         <v>302</v>
       </c>
@@ -5553,7 +6348,7 @@
         <v>8013</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4">
       <c r="A275" s="3" t="s">
         <v>302</v>
       </c>
@@ -5567,7 +6362,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -5581,7 +6376,7 @@
         <v>8101</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4">
       <c r="A277" s="3" t="s">
         <v>302</v>
       </c>
@@ -5595,7 +6390,7 @@
         <v>8102</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4">
       <c r="A278" s="3" t="s">
         <v>302</v>
       </c>
@@ -5609,7 +6404,7 @@
         <v>8130</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4">
       <c r="A279" s="3" t="s">
         <v>302</v>
       </c>
@@ -5623,7 +6418,7 @@
         <v>8131</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4">
       <c r="A280" s="3" t="s">
         <v>302</v>
       </c>
@@ -5637,7 +6432,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4">
       <c r="A281" s="3" t="s">
         <v>302</v>
       </c>
@@ -5651,7 +6446,7 @@
         <v>8133</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4">
       <c r="A282" s="3" t="s">
         <v>302</v>
       </c>
@@ -5665,7 +6460,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4">
       <c r="A283" s="3" t="s">
         <v>302</v>
       </c>
@@ -5679,7 +6474,7 @@
         <v>8140</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
         <v>302</v>
       </c>
@@ -5693,7 +6488,7 @@
         <v>8141</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4">
       <c r="A285" s="3" t="s">
         <v>302</v>
       </c>
@@ -5707,7 +6502,7 @@
         <v>8142</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4">
       <c r="A286" s="3" t="s">
         <v>302</v>
       </c>
@@ -5721,7 +6516,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4">
       <c r="A287" s="3" t="s">
         <v>302</v>
       </c>
@@ -5735,7 +6530,7 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4">
       <c r="A288" s="3" t="s">
         <v>317</v>
       </c>
@@ -5749,7 +6544,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4">
       <c r="A289" s="3" t="s">
         <v>317</v>
       </c>
@@ -5763,7 +6558,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4">
       <c r="A290" s="3" t="s">
         <v>317</v>
       </c>
@@ -5777,7 +6572,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -5791,7 +6586,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4">
       <c r="A292" s="3" t="s">
         <v>317</v>
       </c>
@@ -5805,7 +6600,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4">
       <c r="A293" s="3" t="s">
         <v>317</v>
       </c>
@@ -5819,7 +6614,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4">
       <c r="A294" s="3" t="s">
         <v>317</v>
       </c>
@@ -5833,7 +6628,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4">
       <c r="A295" s="3" t="s">
         <v>317</v>
       </c>
@@ -5847,7 +6642,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4">
       <c r="A296" s="3" t="s">
         <v>317</v>
       </c>
@@ -5861,7 +6656,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4">
       <c r="A297" s="3" t="s">
         <v>317</v>
       </c>
@@ -5875,7 +6670,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4">
       <c r="A298" s="3" t="s">
         <v>317</v>
       </c>
@@ -5889,7 +6684,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4">
       <c r="A299" s="3" t="s">
         <v>317</v>
       </c>
@@ -5903,7 +6698,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4">
       <c r="A300" s="3" t="s">
         <v>317</v>
       </c>
@@ -5917,7 +6712,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4">
       <c r="A301" s="3" t="s">
         <v>317</v>
       </c>
@@ -5931,7 +6726,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4">
       <c r="A302" s="3" t="s">
         <v>317</v>
       </c>
@@ -5945,7 +6740,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4">
       <c r="A303" s="3" t="s">
         <v>317</v>
       </c>
@@ -5959,7 +6754,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4">
       <c r="A304" s="3" t="s">
         <v>317</v>
       </c>
@@ -5973,7 +6768,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4">
       <c r="A305" s="3" t="s">
         <v>317</v>
       </c>
@@ -5987,7 +6782,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4">
       <c r="A306" s="3" t="s">
         <v>338</v>
       </c>
@@ -6001,7 +6796,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4">
       <c r="A307" s="3" t="s">
         <v>338</v>
       </c>
@@ -6015,7 +6810,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4">
       <c r="A308" s="3" t="s">
         <v>338</v>
       </c>
@@ -6029,7 +6824,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4">
       <c r="A309" s="3" t="s">
         <v>338</v>
       </c>
@@ -6043,7 +6838,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4">
       <c r="A310" s="3" t="s">
         <v>338</v>
       </c>
@@ -6057,7 +6852,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4">
       <c r="A311" s="3" t="s">
         <v>338</v>
       </c>
@@ -6071,7 +6866,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4">
       <c r="A312" s="3" t="s">
         <v>338</v>
       </c>
@@ -6085,7 +6880,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4">
       <c r="A313" s="3" t="s">
         <v>338</v>
       </c>
@@ -6099,7 +6894,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4">
       <c r="A314" s="3" t="s">
         <v>338</v>
       </c>
@@ -6113,7 +6908,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4">
       <c r="A315" s="3" t="s">
         <v>338</v>
       </c>
@@ -6127,7 +6922,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4">
       <c r="A316" s="3" t="s">
         <v>338</v>
       </c>
@@ -6141,7 +6936,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4">
       <c r="A317" s="3" t="s">
         <v>338</v>
       </c>
@@ -6155,7 +6950,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4">
       <c r="A318" s="3" t="s">
         <v>338</v>
       </c>
@@ -6169,7 +6964,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4">
       <c r="A319" s="3" t="s">
         <v>338</v>
       </c>
@@ -6183,7 +6978,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4">
       <c r="A320" s="3" t="s">
         <v>338</v>
       </c>
@@ -6197,7 +6992,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4">
       <c r="A321" s="3" t="s">
         <v>338</v>
       </c>
@@ -6211,7 +7006,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4">
       <c r="A322" s="3" t="s">
         <v>338</v>
       </c>
@@ -6225,7 +7020,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4">
       <c r="A323" s="3" t="s">
         <v>338</v>
       </c>
@@ -6239,7 +7034,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4">
       <c r="A324" s="3" t="s">
         <v>338</v>
       </c>
@@ -6253,7 +7048,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4">
       <c r="A325" s="3" t="s">
         <v>338</v>
       </c>
@@ -6267,7 +7062,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4">
       <c r="A326" s="3" t="s">
         <v>338</v>
       </c>
@@ -6281,7 +7076,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4">
       <c r="A327" s="3" t="s">
         <v>338</v>
       </c>
@@ -6295,7 +7090,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4">
       <c r="A328" s="3" t="s">
         <v>338</v>
       </c>
@@ -6309,7 +7104,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4">
       <c r="A329" s="3" t="s">
         <v>338</v>
       </c>
@@ -6323,7 +7118,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4">
       <c r="A330" s="3" t="s">
         <v>338</v>
       </c>
@@ -6337,7 +7132,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4">
       <c r="A331" s="3" t="s">
         <v>338</v>
       </c>
@@ -6351,7 +7146,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4">
       <c r="A332" s="3" t="s">
         <v>338</v>
       </c>
@@ -6365,7 +7160,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4">
       <c r="A333" s="3" t="s">
         <v>338</v>
       </c>
@@ -6379,7 +7174,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4">
       <c r="A334" s="3" t="s">
         <v>338</v>
       </c>
@@ -6393,7 +7188,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4">
       <c r="A335" s="3" t="s">
         <v>338</v>
       </c>
@@ -6407,7 +7202,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4">
       <c r="A336" s="3" t="s">
         <v>338</v>
       </c>
@@ -6421,7 +7216,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4">
       <c r="A337" s="3" t="s">
         <v>338</v>
       </c>
@@ -6435,7 +7230,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4">
       <c r="A338" s="3" t="s">
         <v>338</v>
       </c>
@@ -6449,7 +7244,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4">
       <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
@@ -6463,7 +7258,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4">
       <c r="A340" s="3" t="s">
         <v>338</v>
       </c>
@@ -6477,7 +7272,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4">
       <c r="A341" s="3" t="s">
         <v>338</v>
       </c>
@@ -6491,7 +7286,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4">
       <c r="A342" s="3" t="s">
         <v>338</v>
       </c>
@@ -6505,7 +7300,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4">
       <c r="A343" s="3" t="s">
         <v>338</v>
       </c>
@@ -6519,7 +7314,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4">
       <c r="A344" s="3" t="s">
         <v>338</v>
       </c>
@@ -6533,7 +7328,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4">
       <c r="A345" s="3" t="s">
         <v>338</v>
       </c>
@@ -6547,7 +7342,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4">
       <c r="A346" s="3" t="s">
         <v>338</v>
       </c>
@@ -6561,7 +7356,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
         <v>338</v>
       </c>
@@ -6575,7 +7370,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4">
       <c r="A348" s="3" t="s">
         <v>338</v>
       </c>
@@ -6589,7 +7384,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4">
       <c r="A349" s="3" t="s">
         <v>384</v>
       </c>
@@ -6603,7 +7398,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4">
       <c r="A350" s="3" t="s">
         <v>384</v>
       </c>
@@ -6617,7 +7412,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4">
       <c r="A351" s="3" t="s">
         <v>384</v>
       </c>
@@ -6631,7 +7426,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4">
       <c r="A352" s="3" t="s">
         <v>384</v>
       </c>
@@ -6645,7 +7440,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4">
       <c r="A353" s="3" t="s">
         <v>384</v>
       </c>
@@ -6659,7 +7454,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4">
       <c r="A354" s="3" t="s">
         <v>384</v>
       </c>
@@ -6673,7 +7468,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4">
       <c r="A355" s="3" t="s">
         <v>384</v>
       </c>
@@ -6687,7 +7482,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4">
       <c r="A356" s="3" t="s">
         <v>384</v>
       </c>
@@ -6701,7 +7496,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4">
       <c r="A357" s="3" t="s">
         <v>384</v>
       </c>
@@ -6715,7 +7510,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
         <v>384</v>
       </c>
@@ -6729,7 +7524,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4">
       <c r="A359" s="3" t="s">
         <v>384</v>
       </c>
@@ -6743,7 +7538,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4">
       <c r="A360" s="3" t="s">
         <v>384</v>
       </c>
@@ -6757,7 +7552,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4">
       <c r="A361" s="3" t="s">
         <v>384</v>
       </c>
@@ -6771,7 +7566,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4">
       <c r="A362" s="3" t="s">
         <v>384</v>
       </c>
@@ -6785,7 +7580,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4">
       <c r="A363" s="3" t="s">
         <v>384</v>
       </c>
@@ -6799,7 +7594,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4">
       <c r="A364" s="3" t="s">
         <v>384</v>
       </c>
@@ -6813,7 +7608,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4">
       <c r="A365" s="3" t="s">
         <v>384</v>
       </c>
@@ -6827,7 +7622,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4">
       <c r="A366" s="3" t="s">
         <v>384</v>
       </c>
@@ -6841,7 +7636,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4">
       <c r="A367" s="3" t="s">
         <v>384</v>
       </c>
@@ -6855,7 +7650,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4">
       <c r="A368" s="3" t="s">
         <v>384</v>
       </c>
@@ -6869,7 +7664,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4">
       <c r="A369" s="3" t="s">
         <v>403</v>
       </c>
@@ -6883,7 +7678,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4">
       <c r="A370" s="3" t="s">
         <v>403</v>
       </c>
@@ -6897,7 +7692,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4">
       <c r="A371" s="3" t="s">
         <v>403</v>
       </c>
@@ -6911,7 +7706,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4">
       <c r="A372" s="3" t="s">
         <v>403</v>
       </c>
@@ -6925,7 +7720,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4">
       <c r="A373" s="3" t="s">
         <v>403</v>
       </c>
@@ -6939,7 +7734,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4">
       <c r="A374" s="3" t="s">
         <v>403</v>
       </c>
@@ -6953,7 +7748,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4">
       <c r="A375" s="3" t="s">
         <v>403</v>
       </c>
@@ -6967,7 +7762,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4">
       <c r="A376" s="3" t="s">
         <v>403</v>
       </c>
@@ -6985,4 +7780,2971 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA918F-24CC-48AA-B0D4-210829E83D8E}">
+  <dimension ref="A1:E163"/>
+  <sheetViews>
+    <sheetView topLeftCell="A152" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" thickBot="1">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="72" thickBot="1">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A42" s="6">
+        <v>25</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A47" s="6">
+        <v>26</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A48" s="6">
+        <v>27</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A52" s="6">
+        <v>28</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A71" s="6">
+        <v>29</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A74" s="6">
+        <v>30</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A81" s="6">
+        <v>31</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A82" s="6">
+        <v>32</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A83" s="6">
+        <v>33</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A84" s="6">
+        <v>34</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A93" s="6">
+        <v>35</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A95" s="6">
+        <v>36</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A96" s="6">
+        <v>37</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A97" s="6">
+        <v>38</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A108" s="6">
+        <v>39</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A111" s="6">
+        <v>40</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A112" s="6">
+        <v>41</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A114" s="6">
+        <v>42</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A117" s="6">
+        <v>43</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A119" s="6">
+        <v>44</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A120" s="6">
+        <v>45</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A121" s="6">
+        <v>46</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A122" s="6">
+        <v>47</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A126" s="6">
+        <v>48</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A151" s="6">
+        <v>49</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A152" s="6">
+        <v>50</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A157" s="6">
+        <v>51</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A159" s="6">
+        <v>52</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494C5D6A-2EC1-4B31-9DCC-D49D9D740FC0}">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A16" s="8">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A17" s="8">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A18" s="8">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A21" s="8">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="72" thickBot="1">
+      <c r="A27" s="8">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A31" s="8">
+        <v>10</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A32" s="8">
+        <v>11</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A33" s="8">
+        <v>12</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A49" s="8">
+        <v>13</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A50" s="8">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A51" s="8">
+        <v>15</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A61" s="8">
+        <v>16</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A63" s="8">
+        <v>17</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A71" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A73" s="8">
+        <v>19</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A74" s="8">
+        <v>20</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A75" s="8">
+        <v>21</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>